--- a/robot_path_costmap/benchmark_results/logs_tb3-world_path_layer.xlsx
+++ b/robot_path_costmap/benchmark_results/logs_tb3-world_path_layer.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Uni\Auswertung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Uni\DrivingSwarm\multi_robot_path_planning_new\robot_path_costmap\benchmark_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2ECC1D-8C01-4613-935B-8A84D7305786}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F2E941-C758-4265-A72C-7A4C518A0D5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{922866B7-3E43-4576-8381-870090E4D99F}"/>
   </bookViews>
@@ -114,9 +114,6 @@
     <t>in min</t>
   </si>
   <si>
-    <t>dwa tb3</t>
-  </si>
-  <si>
     <t>Aborting/Crash before reaching first waypoint</t>
   </si>
   <si>
@@ -130,6 +127,9 @@
   </si>
   <si>
     <t>All Robots reached all waypoints</t>
+  </si>
+  <si>
+    <t>path costmap tb3</t>
   </si>
 </sst>
 </file>
@@ -627,6 +627,21 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -634,6 +649,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -645,26 +663,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -719,8 +719,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Mean Waypoint Time - DWA Local Planner</a:t>
+              <a:t>Mean Waypoint Time -</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> Path Costmap</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1587,7 +1594,13 @@
             </a:r>
             <a:r>
               <a:rPr lang="de-DE" baseline="0"/>
-              <a:t> - DWA Local Planner</a:t>
+              <a:t> - </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Path Costmap</a:t>
             </a:r>
             <a:endParaRPr lang="de-DE"/>
           </a:p>
@@ -16218,7 +16231,7 @@
   <dimension ref="A1:AB39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+      <selection activeCell="R44" sqref="R44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16314,33 +16327,33 @@
         <v>10</v>
       </c>
       <c r="E2" s="45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="65" t="s">
+      <c r="G2" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="67"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="77"/>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="78"/>
       <c r="AA2" s="24"/>
       <c r="AB2" s="22"/>
     </row>
@@ -17931,20 +17944,20 @@
       <c r="X23" s="36"/>
       <c r="Y23" s="36"/>
       <c r="Z23" s="51"/>
-      <c r="AA23" s="77"/>
+      <c r="AA23" s="69"/>
     </row>
     <row r="24" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="80"/>
+        <v>26</v>
+      </c>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="72"/>
       <c r="G24">
         <f>ROUNDDOWN(COUNT(G2:G22)/4, 0)</f>
         <v>4</v>
       </c>
-      <c r="H24" s="81">
+      <c r="H24" s="73">
         <f t="shared" ref="H24:Z24" si="5">ROUNDDOWN(COUNT(H2:H22)/4, 0)</f>
         <v>5</v>
       </c>
@@ -17960,7 +17973,7 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="L24" s="81">
+      <c r="L24" s="73">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
@@ -17988,7 +18001,7 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="S24" s="81">
+      <c r="S24" s="73">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
@@ -18000,7 +18013,7 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="V24" s="81">
+      <c r="V24" s="73">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
@@ -18008,7 +18021,7 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="X24" s="81">
+      <c r="X24" s="73">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
@@ -18033,7 +18046,7 @@
       <c r="C25" s="26"/>
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
-      <c r="F25" s="71"/>
+      <c r="F25" s="65"/>
       <c r="G25" s="28">
         <f>SUM(G3:G22)</f>
         <v>785.97000000000037</v>
@@ -18127,7 +18140,7 @@
       <c r="C26" s="31"/>
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
-      <c r="F26" s="72"/>
+      <c r="F26" s="66"/>
       <c r="G26" s="28">
         <f>AVERAGE(G3:G22)</f>
         <v>49.123125000000023</v>
@@ -18222,7 +18235,7 @@
       <c r="D27" s="37"/>
       <c r="E27" s="37"/>
       <c r="F27" s="38"/>
-      <c r="G27" s="73">
+      <c r="G27" s="67">
         <f>AVEDEV(G3:G22)</f>
         <v>38.302187500000009</v>
       </c>
@@ -18311,36 +18324,36 @@
       <c r="C29" s="8"/>
       <c r="L29" s="63"/>
       <c r="M29" s="64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L30" s="61"/>
       <c r="M30" s="62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="70" t="s">
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="G31" s="74"/>
-      <c r="H31" s="76"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="68"/>
       <c r="I31" s="19"/>
       <c r="J31" s="19"/>
       <c r="K31" s="19"/>
-      <c r="L31" s="82"/>
-      <c r="M31" s="83" t="s">
-        <v>28</v>
+      <c r="L31" s="74"/>
+      <c r="M31" s="75" t="s">
+        <v>27</v>
       </c>
       <c r="N31" s="19"/>
       <c r="O31" s="19"/>
@@ -18400,7 +18413,7 @@
         <v>21.927</v>
       </c>
       <c r="F33" s="16">
-        <f>SUM(B33:E33)</f>
+        <f t="shared" ref="F33:F38" si="15">SUM(B33:E33)</f>
         <v>171.12199999999999</v>
       </c>
       <c r="G33" s="17">
@@ -18438,14 +18451,14 @@
         <v>22.567499999999995</v>
       </c>
       <c r="F34" s="16">
-        <f>SUM(B34:E34)</f>
+        <f t="shared" si="15"/>
         <v>301.4858333333334</v>
       </c>
       <c r="G34" s="17">
-        <f t="shared" ref="G34:G38" si="15">F34/60</f>
+        <f t="shared" ref="G34:G38" si="16">F34/60</f>
         <v>5.0247638888888897</v>
       </c>
-      <c r="I34" s="78"/>
+      <c r="I34" s="70"/>
       <c r="J34" s="17"/>
       <c r="K34" s="17"/>
       <c r="L34" s="17"/>
@@ -18476,11 +18489,11 @@
         <v>20.883333333333333</v>
       </c>
       <c r="F35" s="16">
-        <f>SUM(B35:E35)</f>
+        <f t="shared" si="15"/>
         <v>153.26166666666666</v>
       </c>
       <c r="G35" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.5543611111111111</v>
       </c>
       <c r="I35" s="17"/>
@@ -18514,11 +18527,11 @@
         <v>25.495384615384619</v>
       </c>
       <c r="F36" s="16">
-        <f>SUM(B36:E36)</f>
+        <f t="shared" si="15"/>
         <v>236.53384615384616</v>
       </c>
       <c r="G36" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.9422307692307692</v>
       </c>
       <c r="I36" s="17"/>
@@ -18553,11 +18566,11 @@
         <v>21.839999999999996</v>
       </c>
       <c r="F37" s="16">
-        <f>SUM(B37:E37)</f>
+        <f t="shared" si="15"/>
         <v>120.891875</v>
       </c>
       <c r="G37" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.0148645833333334</v>
       </c>
       <c r="I37" s="17"/>
@@ -18592,11 +18605,11 @@
         <v>22.542643589743591</v>
       </c>
       <c r="F38" s="16">
-        <f>SUM(B38:E38)</f>
+        <f t="shared" si="15"/>
         <v>196.65904423076921</v>
       </c>
       <c r="G38" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.2776507371794867</v>
       </c>
       <c r="I38" s="21"/>
